--- a/biology/Botanique/Trèfle/Trèfle.xlsx
+++ b/biology/Botanique/Trèfle/Trèfle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle</t>
+          <t>Trèfle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium
 Les trèfles sont des plantes herbacées de la famille des Fabacées (Légumineuses), appartenant au genre Trifolium.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle</t>
+          <t>Trèfle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,14 +529,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Plantes herbacées généralement de petite taille, certaines rampantes, qui peuvent être vivaces, annuelles ou bisannuelles.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes herbacées généralement de petite taille, certaines rampantes, qui peuvent être vivaces, annuelles ou bisannuelles.
 Les feuilles sont généralement à trois folioles (parfois quatre), et sont à l'origine du nom de la plante ; ces folioles sont presque toujours dentées, parfois maculées en leur centre.
-Appareil floral
-L'inflorescence comporte de nombreuses fleurs groupées en têtes sous forme d'une grappe, et qui ressemble soit à un capitule  en boule, soit à un épi, les pédoncules s'alignant en étages serrés le long de l'extrémité de la tige.
-Le calice de la fleur compte cinq dents, avec une corolle typique des fabacées (étendard, ailes et carène), avec des ailes plus longues que la carène, et un étendard érigé généralement recourbé vers le haut dans la majorité des espèces.
-L'androcée est diadelphe (étamines assemblées en deux groupes).
-Le fruit typique des Fabacées, la gousse multiséminée à déhiscence longitudinale, subit une modification morphologique[2] : elle devient pauciséminée voire uniséminée (quatre graines, trois, deux voire une : akène) et indéhiscente.
 </t>
         </is>
       </c>
@@ -535,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle</t>
+          <t>Trèfle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +562,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques botaniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil floral</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence comporte de nombreuses fleurs groupées en têtes sous forme d'une grappe, et qui ressemble soit à un capitule  en boule, soit à un épi, les pédoncules s'alignant en étages serrés le long de l'extrémité de la tige.
+Le calice de la fleur compte cinq dents, avec une corolle typique des fabacées (étendard, ailes et carène), avec des ailes plus longues que la carène, et un étendard érigé généralement recourbé vers le haut dans la majorité des espèces.
+L'androcée est diadelphe (étamines assemblées en deux groupes).
+Le fruit typique des Fabacées, la gousse multiséminée à déhiscence longitudinale, subit une modification morphologique : elle devient pauciséminée voire uniséminée (quatre graines, trois, deux voire une : akène) et indéhiscente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Trifolium est très répandu dans le monde et représenté dans un total de quatre régions floristiques : Néotropique, Paléotropique, Holarctique et Capensis.
 Il est absent de la région australasienne.
@@ -570,50 +624,16 @@
 L'aire de répartition s'étend jusqu'au Cap dans le sud de l'Afrique, mais le trèfle ne pousse que dans les hautes terres tropicales et est absent des plaines.
 Le trèfle manque à Madagascar, en Namibie, au Botswana et dans la zone sahéliennes. La seule espèce qui atteint la bordure nord du Sahara est le trèfle cotonneux (Trifolium tomentosum).
 Les espèces restantes (26 %) se trouvent en Amérique.
-En Amérique du Nord, le trèfle est absent de l'Alaska, de la plus grande partie du Canada[réf. nécessaire] et du nord-est des États-Unis. On le retrouve dans l'Est et l'Ouest de l'Amérique du Nord et de l'Amérique du Sud[3].
+En Amérique du Nord, le trèfle est absent de l'Alaska, de la plus grande partie du Canada[réf. nécessaire] et du nord-est des États-Unis. On le retrouve dans l'Est et l'Ouest de l'Amérique du Nord et de l'Amérique du Sud.
 Le centre de diversité se situe en Californie.
 Vers le sud, l'aire de répartition du trèfle s'étend jusqu'à environ 43° de latitude sud en Amérique du Sud, où il croît dans les montagnes andines.
-Le trèfle manque dans les Antilles, à Panama et en Guyane[4].
+Le trèfle manque dans les Antilles, à Panama et en Guyane.
 De nombreuses espèces de trèfle, parmi celles croissant en Amérique du Nord, ont été introduites.
 Déjà  en 1739, sur les dix espèces décrites par le botaniste néerlandais, Jan Frederik Gronovius, dans sa Flora Virginica, neuf sont présentées comme introduites.
-En 1994, sur les 93 espèces de trèfle recensées aux États-Unis, 64 étaient indigènes et 29 des espèces néophytes (introduites)[5].
-En Australie, où il n'existe pas de trèfle indigène, de nombreuses espèces ont été introduites. Ainsi, dans le Sud-Ouest de l'Australie, 35 espèces de trèfle néophytes ont été recensées[6].
-Des espèces introduites peuvent également se rencontrer dans les régions alpines de l'est de l'Australie. Un total de neuf espèces[7] sont considérées comme envahissantes[8].
+En 1994, sur les 93 espèces de trèfle recensées aux États-Unis, 64 étaient indigènes et 29 des espèces néophytes (introduites).
+En Australie, où il n'existe pas de trèfle indigène, de nombreuses espèces ont été introduites. Ainsi, dans le Sud-Ouest de l'Australie, 35 espèces de trèfle néophytes ont été recensées.
+Des espèces introduites peuvent également se rencontrer dans les régions alpines de l'est de l'Australie. Un total de neuf espèces sont considérées comme envahissantes.
 Le trèfle a également été introduit en Nouvelle-Zélande et à Hawaï.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agriculture
-Plusieurs espèces sont cultivées comme plantes fourragères ou comme engrais vert. Ce sont de surcroît des plantes mellifères[9]. Les trèfles entrent très souvent dans la composition des prairies naturelles et des prairies temporaires mélangées. La valeur alimentaire des trèfles est élevée aussi bien en énergie qu'en matière protéique. La consommation importante de trèfle frais peut entraîner la météorisation chez les Ruminants ou la fourbure chez les chevaux. Le risque est variable selon les espèces de trèfle.
-Alimentation
-Les feuilles du trèfle peuvent être consommées en salade[10].
 </t>
         </is>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle</t>
+          <t>Trèfle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,10 +659,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces sont cultivées comme plantes fourragères ou comme engrais vert. Ce sont de surcroît des plantes mellifères. Les trèfles entrent très souvent dans la composition des prairies naturelles et des prairies temporaires mélangées. La valeur alimentaire des trèfles est élevée aussi bien en énergie qu'en matière protéique. La consommation importante de trèfle frais peut entraîner la météorisation chez les Ruminants ou la fourbure chez les chevaux. Le risque est variable selon les espèces de trèfle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles du trèfle peuvent être consommées en salade.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prédateur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les chenilles des papillons de nuit (hétérocères) suivants (classés par famille) se nourrissent de trèfle :
 Géomètre à barreaux (Geometridae),
@@ -653,31 +749,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Principales espèces (France)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Trifolium alexandrinum L. - Trèfle d'Alexandrie
@@ -746,73 +844,149 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Plante magique
-Jadis, le trèfle était considéré comme une plante magique associée à la magie blanche. S'il est notoire que la découverte d'un trèfle à quatre feuilles est censée porter bonheur à celui qui le trouve, d'autres sont étonnantes[11] :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plante magique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jadis, le trèfle était considéré comme une plante magique associée à la magie blanche. S'il est notoire que la découverte d'un trèfle à quatre feuilles est censée porter bonheur à celui qui le trouve, d'autres sont étonnantes :
 à 4 feuilles, le trèfle peut rompre un sortilège, ou le renvoyer à son envoyeur ;
 à 5 feuilles, il prédit la célébrité ;
 à 6 feuilles, de très grosses rentrées d'argent ;
-à 7 feuilles, la prospérité à vie.
-Emblème
-La feuille de trèfle est un symbole courant pour représenter l'Irlande (le trèfle irlandais) : la tradition veut que saint Patrick, le patron de l'île, se soit servi de la feuille de trèfle pour illustrer le mystère de la Trinité. On peut aussi remarquer que les folioles de la plante évoquent le  symbole celte à trois branches spiralées appelé triskell. La feuille de trèfle est aussi l'emblème de l'Association mondiale des guides et éclaireuses, l'organisation internationale du guidisme (scoutisme féminin).
+à 7 feuilles, la prospérité à vie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Emblème</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille de trèfle est un symbole courant pour représenter l'Irlande (le trèfle irlandais) : la tradition veut que saint Patrick, le patron de l'île, se soit servi de la feuille de trèfle pour illustrer le mystère de la Trinité. On peut aussi remarquer que les folioles de la plante évoquent le  symbole celte à trois branches spiralées appelé triskell. La feuille de trèfle est aussi l'emblème de l'Association mondiale des guides et éclaireuses, l'organisation internationale du guidisme (scoutisme féminin).
 Le trèfle apparaît également sur les logos du club de football du Celtic Glasgow, du club américain de basket-ball des Celtics de Boston ainsi que sur celui du club omnisports du Panathinaïkos.
-Calendrier républicain
-Dans le calendrier républicain, le Trèfle était le nom attribué au 3e jour du mois de prairial[12].</t>
+</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tr%C3%A8fle</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, le Trèfle était le nom attribué au 3e jour du mois de prairial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Trèfle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude de génétique moléculaire réalisée en 2006 a révélé qu'une division en deux sous-genres Chronosemium et Trifolium avec huit sections est probablement justifiée. Dans ce cas, la section Lotoidea serait déchirée et les sections Mistyllus et Vesicaria seraient combinées. Cependant, les sous-genres suggérés par cette étude n’ont pas encore été valablement décrits pour la première fois[13].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude de génétique moléculaire réalisée en 2006 a révélé qu'une division en deux sous-genres Chronosemium et Trifolium avec huit sections est probablement justifiée. Dans ce cas, la section Lotoidea serait déchirée et les sections Mistyllus et Vesicaria seraient combinées. Cependant, les sous-genres suggérés par cette étude n’ont pas encore été valablement décrits pour la première fois.
 Liste d'espèces et leur classification selon Zohary et Heller
 Section Lotoidea Crantz
 Sous-section Falcatula (Brot.) Aschers. &amp; Graebn.
@@ -825,8 +999,8 @@
 Trifolium schimperi A.Rich.
 Sous-section Lupinaster (Adans.) Belli
 Trifolium andersonii A.Gray
-Trifolium friscanum (S.L.Welsh) S.L.Welsh[14]
-Trifolium gordejevi (Kom.) Z.Wei[15]
+Trifolium friscanum (S.L.Welsh) S.L.Welsh
+Trifolium gordejevi (Kom.) Z.Wei
 Trifolium gymnocarpon Nutt.
 Trifolium lemmonii S.Watson
 Trifolium lupinaster L.
@@ -864,7 +1038,7 @@
 Trifolium bivonae Guss.
 Trifolium breweri S.Watson
 Trifolium burchellianum Ser.
-Trifolium calcaricum J.L.Collins &amp; Wieboldt[16]
+Trifolium calcaricum J.L.Collins &amp; Wieboldt
 Trifolium cernuum Brot.
 Trifolium euxinum Zohary
 Trifolium gillettianum Jac.-Fél.
@@ -970,7 +1144,7 @@
 Série Badia Bobr.
 Trifolium badium Schreb.
 Trifolium erubescens Fenzl
-Trifolium praetermissum Greuter, Pleger &amp; Raus[17]
+Trifolium praetermissum Greuter, Pleger &amp; Raus
 Trifolium sebastianii Savi
 Trifolium spadiceum L.
 Série Agraria Bobr.
@@ -982,10 +1156,10 @@
 Trifolium dolopium Heldr. &amp; Hausskn.
 Trifolium dubium Sibth.
 Trifolium micranthum Viv.
-Trifolium phitosianum N.Böhling, Greuter &amp; Raus[18]
+Trifolium phitosianum N.Böhling, Greuter &amp; Raus
 Section Trifolium
 Sous-section Trifolium
-Trifolium andricum Lassen[19]
+Trifolium andricum Lassen
 Trifolium diffusum Ehrh.
 Trifolium mazanderanicum Rech.f.
 Trifolium noricum Wulf.
@@ -1045,7 +1219,7 @@
 Trifolium dasyurum C.Presl.
 Trifolium dichroanthum Boiss.
 Trifolium haussknechtii Boiss.
-Trifolium infamia-ponertii Greuter[20]
+Trifolium infamia-ponertii Greuter
 Trifolium palaestinum Boiss.
 Trifolium prophetarum M.Hossain
 Trifolium purpureum Loisel.
@@ -1088,7 +1262,7 @@
 Section Involucrarium Hook.
 Sous-section Involucrarium
 Trifolium antucoensis D.Heller
-Trifolium buckwestiorum Isely[21]
+Trifolium buckwestiorum Isely
 Trifolium chilense Hook. &amp; Arn.
 Trifolium microcephalum Pursh
 Trifolium microdon Hook. &amp; Arn.
@@ -1111,7 +1285,7 @@
 Trifolium cyathiferum Lindl.
 Trifolium depauperatum Desv.
 Trifolium fucatum Lindl.
-Trifolium jokerstii Vincent &amp; Rand.Morgan[5]
+Trifolium jokerstii Vincent &amp; Rand.Morgan
 Trifolium minutissimum D.Heller &amp; Zohary
 Trifolium physanthum Hook. &amp; Arn.
 </t>
